--- a/sinh_vien.xlsx
+++ b/sinh_vien.xlsx
@@ -39,9 +39,6 @@
     <t>cntt</t>
   </si>
   <si>
-    <t>trung kien</t>
-  </si>
-  <si>
     <t>nghanhHoc_khNganh</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>2014-2015</t>
+  </si>
+  <si>
+    <t>bao anh</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="C5:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,21 +436,21 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>14050578</v>
+        <v>657</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>1</v>
